--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/70681460/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/70681460/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9851824641227722</v>
+        <v>0.5843936204910278</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9850833415985107</v>
+        <v>0.5819941759109497</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8599272966384888</v>
+        <v>0.3413336575031281</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9852178692817688</v>
+        <v>0.5848783850669861</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9852898716926575</v>
+        <v>0.5851104259490967</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9852414727210999</v>
+        <v>0.5849197506904602</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.985310435295105</v>
+        <v>0.5840741991996765</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9852414727210999</v>
+        <v>0.5849197506904602</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8244597911834717</v>
+        <v>0.3057743608951569</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9852322340011597</v>
+        <v>0.5853078961372375</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9321244955062866</v>
+        <v>0.3476821184158325</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9852302670478821</v>
+        <v>0.5847280621528625</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9852412343025208</v>
+        <v>0.5847700238227844</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9852576851844788</v>
+        <v>0.5848575830459595</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9852439165115356</v>
+        <v>0.5849711894989014</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3515041172504425</v>
+        <v>0.2255179584026337</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9852675199508667</v>
+        <v>0.5851933360099792</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9852612614631653</v>
+        <v>0.5851229429244995</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9851263761520386</v>
+        <v>0.5843596458435059</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9852280616760254</v>
+        <v>0.584760844707489</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9852639436721802</v>
+        <v>0.5851685404777527</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9852750301361084</v>
+        <v>0.5852413177490234</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8579257726669312</v>
+        <v>0.3375247120857239</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3556838929653168</v>
+        <v>0.2255138903856277</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9851241707801819</v>
+        <v>0.5845938920974731</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9851424098014832</v>
+        <v>0.5843269824981689</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9852601289749146</v>
+        <v>0.5849428772926331</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9851874113082886</v>
+        <v>0.5846022367477417</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9852772355079651</v>
+        <v>0.5850759148597717</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9095291495323181</v>
+        <v>0.3205823004245758</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9304996728897095</v>
+        <v>0.3475238084793091</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9306545257568359</v>
+        <v>0.3455584645271301</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9852686524391174</v>
+        <v>0.5850947499275208</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.931854784488678</v>
+        <v>0.3468927145004272</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9852508306503296</v>
+        <v>0.5853062272071838</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9315954446792603</v>
+        <v>0.3471433818340302</v>
       </c>
     </row>
     <row r="40">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8451699018478394</v>
+        <v>0.2843181192874908</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9852828979492188</v>
+        <v>0.5852752327919006</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9218649864196777</v>
+        <v>0.3376593887805939</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9107992053031921</v>
+        <v>0.3218051791191101</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9318287968635559</v>
+        <v>0.346028208732605</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9111630320549011</v>
+        <v>0.3221609890460968</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9089058041572571</v>
+        <v>0.3206361830234528</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8453992605209351</v>
+        <v>0.3131926953792572</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9086949229240417</v>
+        <v>0.3198117911815643</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9852537512779236</v>
+        <v>0.5851130485534668</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.910130500793457</v>
+        <v>0.3205010294914246</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9068996906280518</v>
+        <v>0.3164458274841309</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9851564168930054</v>
+        <v>0.5845285058021545</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.910130500793457</v>
+        <v>0.3205010294914246</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9103756546974182</v>
+        <v>0.3209615647792816</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9852457642555237</v>
+        <v>0.5850943922996521</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9852539896965027</v>
+        <v>0.5849382877349854</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9852622151374817</v>
+        <v>0.5852870345115662</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9313207268714905</v>
+        <v>0.3460611999034882</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9852055907249451</v>
+        <v>0.5850473046302795</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9851781725883484</v>
+        <v>0.5848038792610168</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9852566123008728</v>
+        <v>0.5848652124404907</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9852783679962158</v>
+        <v>0.5852773189544678</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9317715764045715</v>
+        <v>0.3459954559803009</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9314634203910828</v>
+        <v>0.3348537981510162</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9308992624282837</v>
+        <v>0.345833957195282</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9308992624282837</v>
+        <v>0.345833957195282</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9317984580993652</v>
+        <v>0.346098780632019</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9308992624282837</v>
+        <v>0.345833957195282</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8303306698799133</v>
+        <v>0.302822470664978</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9852805733680725</v>
+        <v>0.58501797914505</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9319687485694885</v>
+        <v>0.3471577763557434</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9849637150764465</v>
+        <v>0.5838099122047424</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9318726658821106</v>
+        <v>0.346735030412674</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9852141737937927</v>
+        <v>0.5847706198692322</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9852369427680969</v>
+        <v>0.5849300622940063</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9318726658821106</v>
+        <v>0.346735030412674</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9851782917976379</v>
+        <v>0.5846306681632996</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9318726658821106</v>
+        <v>0.346735030412674</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9852659106254578</v>
+        <v>0.5851658582687378</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9318622350692749</v>
+        <v>0.3465160727500916</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9851753115653992</v>
+        <v>0.5846193432807922</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9318622350692749</v>
+        <v>0.3465160727500916</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9847384691238403</v>
+        <v>0.5831940770149231</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9847384691238403</v>
+        <v>0.5831940770149231</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.985241711139679</v>
+        <v>0.5853179097175598</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9322272539138794</v>
+        <v>0.3468991219997406</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9852644801139832</v>
+        <v>0.5848731398582458</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9319889545440674</v>
+        <v>0.3464559614658356</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9851557612419128</v>
+        <v>0.5845863819122314</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9852390289306641</v>
+        <v>0.5847591757774353</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9852365255355835</v>
+        <v>0.5847529172897339</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9852383732795715</v>
+        <v>0.5847570896148682</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9852480888366699</v>
+        <v>0.5847503542900085</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9852505922317505</v>
+        <v>0.5847508311271667</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9852414727210999</v>
+        <v>0.5847485661506653</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9852441549301147</v>
+        <v>0.5853222608566284</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.313209056854248</v>
+        <v>0.2092366814613342</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9852352142333984</v>
+        <v>0.5849986672401428</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9851330518722534</v>
+        <v>0.5845817923545837</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.985131561756134</v>
+        <v>0.584358274936676</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.985282301902771</v>
+        <v>0.5851590037345886</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8579437732696533</v>
+        <v>0.3344525992870331</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9853317141532898</v>
+        <v>0.5786609053611755</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.985270082950592</v>
+        <v>0.584880530834198</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8362109065055847</v>
+        <v>0.305361807346344</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9851561784744263</v>
+        <v>0.5843806862831116</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9108738303184509</v>
+        <v>0.322086364030838</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8557747006416321</v>
+        <v>0.3357548117637634</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9851463437080383</v>
+        <v>0.5845876932144165</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9093736410140991</v>
+        <v>0.3207903802394867</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9107044339179993</v>
+        <v>0.3217397034168243</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9315887093544006</v>
+        <v>0.3475501537322998</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9852601289749146</v>
+        <v>0.5852757096290588</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9316872954368591</v>
+        <v>0.3476149141788483</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9847567677497864</v>
+        <v>0.5823730826377869</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9850530028343201</v>
+        <v>0.5839692950248718</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4836457967758179</v>
+        <v>0.2963974177837372</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9852331280708313</v>
+        <v>0.5849207043647766</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8309133648872375</v>
+        <v>0.3029157519340515</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9852171540260315</v>
+        <v>0.5850701928138733</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8309133648872375</v>
+        <v>0.3029157519340515</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9852171540260315</v>
+        <v>0.5850701928138733</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8309133648872375</v>
+        <v>0.3029157519340515</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9852466583251953</v>
+        <v>0.585057258605957</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8252255320549011</v>
+        <v>0.5283012986183167</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9852806925773621</v>
+        <v>0.5849870443344116</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.985152006149292</v>
+        <v>0.584344744682312</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9850645661354065</v>
+        <v>0.5840474963188171</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9014915823936462</v>
+        <v>0.3213399350643158</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9852011203765869</v>
+        <v>0.5849599242210388</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9852077960968018</v>
+        <v>0.5847244262695312</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9852688908576965</v>
+        <v>0.5850328207015991</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9848105311393738</v>
+        <v>0.5828275084495544</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9852510690689087</v>
+        <v>0.5849419236183167</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9850510358810425</v>
+        <v>0.5839922428131104</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9850512742996216</v>
+        <v>0.583977997303009</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9851796627044678</v>
+        <v>0.5846988558769226</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.752081573009491</v>
+        <v>0.2330840975046158</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9308032989501953</v>
+        <v>0.3449899852275848</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9852195978164673</v>
+        <v>0.5848522782325745</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9308032989501953</v>
+        <v>0.3449899852275848</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9847774505615234</v>
+        <v>0.5831899046897888</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8303306698799133</v>
+        <v>0.302822470664978</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9852041006088257</v>
+        <v>0.5845087766647339</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9320176243782043</v>
+        <v>0.3468804955482483</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8286595940589905</v>
+        <v>0.3040193617343903</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8572549223899841</v>
+        <v>0.3330252766609192</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9852773547172546</v>
+        <v>0.5853103995323181</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8590158224105835</v>
+        <v>0.3385516405105591</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9852787256240845</v>
+        <v>0.5852610468864441</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8592479228973389</v>
+        <v>0.3386990129947662</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9852323532104492</v>
+        <v>0.584865927696228</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8593254685401917</v>
+        <v>0.338882714509964</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9852301478385925</v>
+        <v>0.5849201083183289</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9321660399436951</v>
+        <v>0.3474686741828918</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9851499795913696</v>
+        <v>0.5845050811767578</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9851388335227966</v>
+        <v>0.4835511744022369</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9850178360939026</v>
+        <v>0.5839999318122864</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9309003353118896</v>
+        <v>0.3458358347415924</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9852269887924194</v>
+        <v>0.5853294730186462</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.984649121761322</v>
+        <v>0.5830557346343994</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9060854315757751</v>
+        <v>0.3167765438556671</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9319756031036377</v>
+        <v>0.3464018404483795</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9060854315757751</v>
+        <v>0.3167765438556671</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9320662021636963</v>
+        <v>0.3467176854610443</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.985171377658844</v>
+        <v>0.584658145904541</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9850844740867615</v>
+        <v>0.5840083956718445</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9850489497184753</v>
+        <v>0.5839799642562866</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9850844740867615</v>
+        <v>0.5840083956718445</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9850844740867615</v>
+        <v>0.5840083956718445</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9850489497184753</v>
+        <v>0.5839799642562866</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9852375388145447</v>
+        <v>0.5846160650253296</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9849913716316223</v>
+        <v>0.5838611721992493</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.985248863697052</v>
+        <v>0.5849416255950928</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9852907657623291</v>
+        <v>0.5851731896400452</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9852310419082642</v>
+        <v>0.5851367115974426</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.833823025226593</v>
+        <v>0.3047730922698975</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9852800369262695</v>
+        <v>0.5852754712104797</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9852877855300903</v>
+        <v>0.5852846503257751</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9852627515792847</v>
+        <v>0.5849695801734924</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9852551221847534</v>
+        <v>0.5849201679229736</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9851970672607422</v>
+        <v>0.5846241116523743</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9852436780929565</v>
+        <v>0.5847682952880859</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9852457642555237</v>
+        <v>0.5847521424293518</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.3149365484714508</v>
+        <v>0.2080751657485962</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.985248863697052</v>
+        <v>0.5851094126701355</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9852378964424133</v>
+        <v>0.584883987903595</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8311238884925842</v>
+        <v>0.3027393519878387</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9095327854156494</v>
+        <v>0.3211606442928314</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.985268771648407</v>
+        <v>0.5852770209312439</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9852272272109985</v>
+        <v>0.5849075317382812</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9852244853973389</v>
+        <v>0.5849730968475342</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9852922558784485</v>
+        <v>0.5851543545722961</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9066422581672668</v>
+        <v>0.3462725579738617</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9852519035339355</v>
+        <v>0.585192859172821</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9852871894836426</v>
+        <v>0.5852012634277344</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9852718114852905</v>
+        <v>0.5849723815917969</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.905771017074585</v>
+        <v>0.315865159034729</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9852373003959656</v>
+        <v>0.5850150585174561</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9850268959999084</v>
+        <v>0.5839622616767883</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3154053390026093</v>
+        <v>0.2087932080030441</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9849976301193237</v>
+        <v>0.5836979150772095</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3570808172225952</v>
+        <v>0.2295571565628052</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9852381348609924</v>
+        <v>0.5849248170852661</v>
       </c>
     </row>
   </sheetData>
